--- a/teaching/traditional_assets/database/data/taiwan/taiwan_insurance_general.xlsx
+++ b/teaching/traditional_assets/database/data/taiwan/taiwan_insurance_general.xlsx
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.08789999999999999</v>
+        <v>0.105</v>
       </c>
       <c r="E2">
-        <v>-0.0103</v>
+        <v>0.0247</v>
       </c>
       <c r="G2">
-        <v>0.05085427135678392</v>
+        <v>0.0619669277632724</v>
       </c>
       <c r="H2">
-        <v>0.05085427135678392</v>
+        <v>0.0619669277632724</v>
       </c>
       <c r="I2">
-        <v>0.072574410593278</v>
+        <v>0.06544821583986075</v>
       </c>
       <c r="J2">
-        <v>0.05610732695375632</v>
+        <v>0.05208203091481877</v>
       </c>
       <c r="K2">
-        <v>5.32</v>
+        <v>6.1</v>
       </c>
       <c r="L2">
-        <v>0.05346733668341709</v>
+        <v>0.05308964316797214</v>
       </c>
       <c r="M2">
-        <v>3.39</v>
+        <v>3.84</v>
       </c>
       <c r="N2">
-        <v>0.04927325581395348</v>
+        <v>0.05189189189189189</v>
       </c>
       <c r="O2">
-        <v>0.6372180451127819</v>
+        <v>0.6295081967213115</v>
       </c>
       <c r="P2">
-        <v>3.39</v>
+        <v>3.84</v>
       </c>
       <c r="Q2">
-        <v>0.04927325581395348</v>
+        <v>0.05189189189189189</v>
       </c>
       <c r="R2">
-        <v>0.6372180451127819</v>
+        <v>0.6295081967213115</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,73 +639,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>7.53</v>
+        <v>11.62</v>
       </c>
       <c r="V2">
-        <v>0.1094476744186047</v>
+        <v>0.157027027027027</v>
       </c>
       <c r="W2">
-        <v>0.2550479003802654</v>
+        <v>0.2579789124887326</v>
       </c>
       <c r="X2">
-        <v>0.05335463455658759</v>
+        <v>0.04672939245001846</v>
       </c>
       <c r="Y2">
-        <v>0.2016932658236778</v>
+        <v>0.2112495200387141</v>
       </c>
       <c r="Z2">
-        <v>5.133038364365349</v>
+        <v>5.302261190586064</v>
       </c>
       <c r="AA2">
-        <v>0.3568119815546773</v>
+        <v>0.3168470612550844</v>
       </c>
       <c r="AB2">
-        <v>0.05093405792502602</v>
+        <v>0.04461634212803336</v>
       </c>
       <c r="AC2">
-        <v>0.3058779236296513</v>
+        <v>0.272230719127051</v>
       </c>
       <c r="AD2">
-        <v>5.91</v>
+        <v>5.88</v>
       </c>
       <c r="AE2">
-        <v>2.434230729844197</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>8.344230729844197</v>
+        <v>5.88</v>
       </c>
       <c r="AG2">
-        <v>0.8142307298441969</v>
+        <v>-5.740000000000001</v>
       </c>
       <c r="AH2">
-        <v>0.1081640279629638</v>
+        <v>0.07361041562343515</v>
       </c>
       <c r="AI2">
-        <v>0.2347562616635302</v>
+        <v>0.1611842105263158</v>
       </c>
       <c r="AJ2">
-        <v>0.01169632589928383</v>
+        <v>-0.08409024318781132</v>
       </c>
       <c r="AK2">
-        <v>0.02906489696955263</v>
+        <v>-0.2308930008045053</v>
       </c>
       <c r="AL2">
-        <v>0.082</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="AM2">
-        <v>-0.07099999999999999</v>
+        <v>-0.109</v>
       </c>
       <c r="AN2">
-        <v>0.7182790471560524</v>
+        <v>0.7144592952612393</v>
       </c>
       <c r="AO2">
-        <v>77.19512195121951</v>
+        <v>86.43678160919541</v>
       </c>
       <c r="AP2">
-        <v>0.09895852331601808</v>
+        <v>-0.6974483596597814</v>
       </c>
       <c r="AQ2">
-        <v>-89.1549295774648</v>
+        <v>-68.99082568807339</v>
       </c>
     </row>
     <row r="3">
@@ -725,40 +725,40 @@
         </is>
       </c>
       <c r="G3">
-        <v>0.03351424694708277</v>
+        <v>0.04951100244498777</v>
       </c>
       <c r="H3">
-        <v>0.03351424694708277</v>
+        <v>0.04951100244498777</v>
       </c>
       <c r="I3">
-        <v>0.06001505480734676</v>
+        <v>0.05073349633251834</v>
       </c>
       <c r="J3">
-        <v>0.04744047189533124</v>
+        <v>0.04058679706601467</v>
       </c>
       <c r="K3">
-        <v>2.98</v>
+        <v>3.29</v>
       </c>
       <c r="L3">
-        <v>0.04043419267299864</v>
+        <v>0.0402200488997555</v>
       </c>
       <c r="M3">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="N3">
-        <v>0.03806451612903226</v>
+        <v>0.03720238095238095</v>
       </c>
       <c r="O3">
-        <v>0.3959731543624161</v>
+        <v>0.3799392097264437</v>
       </c>
       <c r="P3">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="Q3">
-        <v>0.03806451612903226</v>
+        <v>0.03720238095238095</v>
       </c>
       <c r="R3">
-        <v>0.3959731543624161</v>
+        <v>0.3799392097264437</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -767,73 +767,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>5.66</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="V3">
-        <v>0.1825806451612903</v>
+        <v>0.2741071428571429</v>
       </c>
       <c r="W3">
-        <v>0.3453070683661645</v>
+        <v>0.3466807165437302</v>
       </c>
       <c r="X3">
-        <v>0.05440412349299216</v>
+        <v>0.0481976031932337</v>
       </c>
       <c r="Y3">
-        <v>0.2909029448731723</v>
+        <v>0.2984831133504965</v>
       </c>
       <c r="Z3">
-        <v>11.62560998517096</v>
+        <v>10.99462365591398</v>
       </c>
       <c r="AA3">
-        <v>0.5515244237675849</v>
+        <v>0.4462365591397849</v>
       </c>
       <c r="AB3">
-        <v>0.05153703473293113</v>
+        <v>0.04476449848052817</v>
       </c>
       <c r="AC3">
-        <v>0.4999873890346538</v>
+        <v>0.4014720606592567</v>
       </c>
       <c r="AD3">
-        <v>4.2</v>
+        <v>4.59</v>
       </c>
       <c r="AE3">
-        <v>0.9994523034927204</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>5.199452303492721</v>
+        <v>4.59</v>
       </c>
       <c r="AG3">
-        <v>-0.4605476965072794</v>
+        <v>-4.620000000000001</v>
       </c>
       <c r="AH3">
-        <v>0.1436334522384763</v>
+        <v>0.1201885310290652</v>
       </c>
       <c r="AI3">
-        <v>0.3290906674241675</v>
+        <v>0.2654713707345286</v>
       </c>
       <c r="AJ3">
-        <v>-0.01508041768170832</v>
+        <v>-0.1594202898550725</v>
       </c>
       <c r="AK3">
-        <v>-0.04542135834581867</v>
+        <v>-0.5717821782178221</v>
       </c>
       <c r="AL3">
-        <v>0.065</v>
+        <v>0.055</v>
       </c>
       <c r="AM3">
-        <v>0.058</v>
+        <v>0.047</v>
       </c>
       <c r="AN3">
-        <v>0.8445606273878945</v>
+        <v>1</v>
       </c>
       <c r="AO3">
-        <v>59.07692307692307</v>
+        <v>75.45454545454547</v>
       </c>
       <c r="AP3">
-        <v>-0.09260963131053275</v>
+        <v>-1.006535947712418</v>
       </c>
       <c r="AQ3">
-        <v>66.20689655172413</v>
+        <v>88.29787234042554</v>
       </c>
     </row>
     <row r="4">
@@ -844,7 +844,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Taiming Assurance Broker Co., Ltd. (GTSM:5878)</t>
+          <t>Taiming Assurance Broker Co.,Ltd. (GTSM:5878)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -853,46 +853,46 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.08789999999999999</v>
+        <v>0.105</v>
       </c>
       <c r="E4">
-        <v>-0.0103</v>
+        <v>0.0247</v>
       </c>
       <c r="G4">
-        <v>0.1003875968992248</v>
+        <v>0.09274924471299092</v>
       </c>
       <c r="H4">
-        <v>0.1003875968992248</v>
+        <v>0.09274924471299092</v>
       </c>
       <c r="I4">
-        <v>0.1084513300282831</v>
+        <v>0.1018126888217523</v>
       </c>
       <c r="J4">
-        <v>0.08195940208244297</v>
+        <v>0.08058976213778138</v>
       </c>
       <c r="K4">
-        <v>2.34</v>
+        <v>2.81</v>
       </c>
       <c r="L4">
-        <v>0.09069767441860464</v>
+        <v>0.08489425981873111</v>
       </c>
       <c r="M4">
-        <v>2.21</v>
+        <v>2.59</v>
       </c>
       <c r="N4">
-        <v>0.05846560846560847</v>
+        <v>0.06410891089108911</v>
       </c>
       <c r="O4">
-        <v>0.9444444444444445</v>
+        <v>0.9217081850533807</v>
       </c>
       <c r="P4">
-        <v>2.21</v>
+        <v>2.59</v>
       </c>
       <c r="Q4">
-        <v>0.05846560846560847</v>
+        <v>0.06410891089108911</v>
       </c>
       <c r="R4">
-        <v>0.9444444444444445</v>
+        <v>0.9217081850533807</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -901,73 +901,73 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>1.87</v>
+        <v>2.41</v>
       </c>
       <c r="V4">
-        <v>0.04947089947089948</v>
+        <v>0.05965346534653466</v>
       </c>
       <c r="W4">
-        <v>0.1647887323943662</v>
+        <v>0.1692771084337349</v>
       </c>
       <c r="X4">
-        <v>0.05230514562018303</v>
+        <v>0.04526118170680322</v>
       </c>
       <c r="Y4">
-        <v>0.1124835867741832</v>
+        <v>0.1240159267269317</v>
       </c>
       <c r="Z4">
-        <v>1.97780285388995</v>
+        <v>2.326071679550246</v>
       </c>
       <c r="AA4">
-        <v>0.1620995393417696</v>
+        <v>0.1874575633703839</v>
       </c>
       <c r="AB4">
-        <v>0.05033108111712091</v>
+        <v>0.04446818577553856</v>
       </c>
       <c r="AC4">
-        <v>0.1117684582246487</v>
+        <v>0.1429893775948454</v>
       </c>
       <c r="AD4">
-        <v>1.71</v>
+        <v>1.29</v>
       </c>
       <c r="AE4">
-        <v>1.434778426351477</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>3.144778426351476</v>
+        <v>1.29</v>
       </c>
       <c r="AG4">
-        <v>1.274778426351476</v>
+        <v>-1.12</v>
       </c>
       <c r="AH4">
-        <v>0.07680535949188436</v>
+        <v>0.03094267210362197</v>
       </c>
       <c r="AI4">
-        <v>0.159271396135519</v>
+        <v>0.0672225117248567</v>
       </c>
       <c r="AJ4">
-        <v>0.03262407306427063</v>
+        <v>-0.0285132382892057</v>
       </c>
       <c r="AK4">
-        <v>0.07131715962823706</v>
+        <v>-0.06674612634088202</v>
       </c>
       <c r="AL4">
-        <v>0.017</v>
+        <v>0.032</v>
       </c>
       <c r="AM4">
-        <v>-0.129</v>
+        <v>-0.156</v>
       </c>
       <c r="AN4">
-        <v>0.5253456221198157</v>
+        <v>0.3543956043956044</v>
       </c>
       <c r="AO4">
-        <v>146.4705882352941</v>
+        <v>105.3125</v>
       </c>
       <c r="AP4">
-        <v>0.3916369973430035</v>
+        <v>-0.3076923076923077</v>
       </c>
       <c r="AQ4">
-        <v>-19.30232558139535</v>
+        <v>-21.6025641025641</v>
       </c>
     </row>
   </sheetData>
